--- a/data_excel/509.xlsx
+++ b/data_excel/509.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>小宇</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,14 +207,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -516,7 +536,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,8 +594,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
